--- a/DBR_엑셀 기본함수 연습파일.xlsx
+++ b/DBR_엑셀 기본함수 연습파일.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toto\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CFA176-6378-4390-BA3E-87CE2D5B8B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2010" windowWidth="20835" windowHeight="13710" activeTab="2" xr2:uid="{45BFB641-14F2-4DF0-AEFF-D92132C76C69}"/>
+    <workbookView xWindow="6870" yWindow="2010" windowWidth="20835" windowHeight="13710"/>
   </bookViews>
   <sheets>
     <sheet name="1. 연습란" sheetId="5" r:id="rId1"/>
     <sheet name="2. 정답란" sheetId="4" r:id="rId2"/>
     <sheet name="VLOOKUP연습" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>영업지점</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,11 +262,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +469,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,10 +482,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -549,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -795,21 +789,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E344A34D-8837-4921-B92A-5CE593538F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
@@ -823,20 +817,20 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="5.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:10" ht="5.45" customHeight="1"/>
+    <row r="2" spans="2:10" ht="35.450000000000003" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,17 +846,21 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>18005</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="H4" s="3" t="s">
@@ -870,12 +868,16 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7217</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="H5" s="3" t="s">
@@ -883,12 +885,16 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7691</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="H6" s="3" t="s">
@@ -896,12 +902,16 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5616</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="H7" s="3" t="s">
@@ -909,12 +919,16 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>12954</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="H8" s="3" t="s">
@@ -922,34 +936,46 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6705</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13382</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6228</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="H11" s="3" t="s">
@@ -957,12 +983,16 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8062</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="H12" s="3" t="s">
@@ -970,12 +1000,16 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1255</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="H13" s="3" t="s">
@@ -984,13 +1018,13 @@
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" ht="17.45" customHeight="1"/>
+    <row r="15" spans="2:10" ht="17.45" customHeight="1"/>
+    <row r="16" spans="2:10" ht="17.45" customHeight="1"/>
+    <row r="17" ht="17.45" customHeight="1"/>
+    <row r="18" ht="17.45" customHeight="1"/>
+    <row r="19" ht="17.45" customHeight="1"/>
+    <row r="23" ht="16.899999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:I2"/>
@@ -1004,14 +1038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBBBE6A-6AFA-498A-BE27-51F3C0D19A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
@@ -1024,20 +1058,20 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:10" ht="7.9" customHeight="1"/>
+    <row r="2" spans="2:10" ht="35.450000000000003" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1053,12 +1087,12 @@
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1110,7 +1144,7 @@
         <v>87115</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>8711.5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1196,7 @@
         <v>18005</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1222,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1241,7 @@
         <v>미달성</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,12 +1259,12 @@
         <f t="shared" si="1"/>
         <v>달성</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1316,7 @@
         <v>59515</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="16.149999999999999" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1309,13 +1343,13 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" ht="17.45" customHeight="1"/>
+    <row r="15" spans="2:10" ht="17.45" customHeight="1"/>
+    <row r="16" spans="2:10" ht="17.45" customHeight="1"/>
+    <row r="17" ht="17.45" customHeight="1"/>
+    <row r="18" ht="17.45" customHeight="1"/>
+    <row r="19" ht="17.45" customHeight="1"/>
+    <row r="23" ht="16.899999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:I2"/>
@@ -1329,14 +1363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932D13D-25E2-4386-AAAD-CE68D033E688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="8.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
@@ -1347,40 +1381,40 @@
     <col min="9" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
@@ -1391,120 +1425,121 @@
         <v>010-4774-4269</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:9">
+      <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>